--- a/阶段评审表/项目总评表.xlsx
+++ b/阶段评审表/项目总评表.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E5808F-32E5-4761-997B-23434EDA22CD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E2C0E3-1394-43AE-AA59-24A8381C90CC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -418,42 +418,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -483,6 +447,42 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,19 +640,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>16.3</c:v>
+                  <c:v>16.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>16.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -933,16 +933,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>17.5</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.5</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>17.5</c:v>
@@ -1004,19 +1004,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>16.3</c:v>
+                  <c:v>16.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>16.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1368,19 +1368,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>16.3</c:v>
+                  <c:v>16.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>16.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1664,7 +1664,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.5</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16.5</c:v>
@@ -1732,19 +1732,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>16.3</c:v>
+                  <c:v>16.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>16.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2025,19 +2025,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>14.5</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2096,19 +2096,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>16.3</c:v>
+                  <c:v>16.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>16.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5496,8 +5496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5506,47 +5506,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="19" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="13" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="1" t="s">
         <v>35</v>
       </c>
@@ -5580,25 +5580,25 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="14">
         <v>8</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="14">
         <v>8</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="14">
         <v>9</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="14">
         <v>8</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="14">
         <v>33</v>
       </c>
       <c r="I5" t="s">
@@ -5624,47 +5624,48 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
       <c r="I6" t="s">
         <v>48</v>
       </c>
       <c r="J6">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="K6">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="L6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M6">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="N6">
         <v>17.5</v>
       </c>
       <c r="O6">
-        <v>89</v>
+        <f>SUM(J6:N6)</f>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
       <c r="I7" t="s">
         <v>50</v>
       </c>
@@ -5684,6 +5685,7 @@
         <v>17</v>
       </c>
       <c r="O7">
+        <f t="shared" ref="O7:O9" si="0">SUM(J7:N7)</f>
         <v>83</v>
       </c>
     </row>
@@ -5704,7 +5706,7 @@
         <v>17</v>
       </c>
       <c r="K8">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="L8">
         <v>16.5</v>
@@ -5716,51 +5718,53 @@
         <v>16</v>
       </c>
       <c r="O8">
-        <v>82.5</v>
+        <f>SUM(J8:N8)</f>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="14">
         <v>9</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="14">
         <v>8</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="14">
         <v>10</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="14">
         <v>8</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="14">
         <v>35</v>
       </c>
       <c r="I9" t="s">
         <v>51</v>
       </c>
       <c r="J9">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="K9">
         <v>16.5</v>
       </c>
       <c r="L9">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="M9">
         <v>15.5</v>
       </c>
       <c r="N9">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="O9">
-        <v>78.5</v>
+        <f>SUM(J9:N9)</f>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5778,80 +5782,80 @@
       </c>
       <c r="J10">
         <f>AVERAGE(J5:J9)</f>
-        <v>16.3</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="K10">
-        <f t="shared" ref="K10:N10" si="0">AVERAGE(K5:K9)</f>
+        <f t="shared" ref="K10:O10" si="1">AVERAGE(K5:K9)</f>
+        <v>17</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>16.8</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
         <v>16.899999999999999</v>
       </c>
-      <c r="L10">
-        <f t="shared" si="0"/>
-        <v>16.899999999999999</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="0"/>
-        <v>16.100000000000001</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="0"/>
-        <v>16.8</v>
-      </c>
     </row>
     <row r="11" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="14">
         <v>8</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="14">
         <v>8</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="14">
         <v>10</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="14">
         <v>8</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="14">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
@@ -5865,60 +5869,60 @@
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="14">
         <v>8</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="14">
         <v>8</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="14">
         <v>8</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="14">
         <v>8</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="14">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
@@ -5932,60 +5936,60 @@
       <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="14">
         <v>8</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="14">
         <v>9</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="14">
         <v>8</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="14">
         <v>8</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="14">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
     </row>
     <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
@@ -5999,70 +6003,70 @@
       <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="4">
+      <c r="B26" s="23"/>
+      <c r="C26" s="17">
         <v>167</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="5"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="7"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="18"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="19" t="s">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="21"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="19" t="s">
+      <c r="B31" s="11"/>
+      <c r="C31" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="13" t="s">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
-      <c r="B32" s="25"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="1" t="s">
         <v>34</v>
       </c>
@@ -6078,49 +6082,49 @@
       <c r="G32" s="15"/>
     </row>
     <row r="33" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="14">
+        <v>8</v>
+      </c>
+      <c r="D33" s="14">
+        <v>8</v>
+      </c>
+      <c r="E33" s="14">
+        <v>8</v>
+      </c>
+      <c r="F33" s="14">
         <v>9</v>
       </c>
-      <c r="D33" s="13">
-        <v>8</v>
-      </c>
-      <c r="E33" s="13">
-        <v>9</v>
-      </c>
-      <c r="F33" s="13">
-        <v>9</v>
-      </c>
-      <c r="G33" s="13">
-        <v>35</v>
+      <c r="G33" s="14">
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+      <c r="A35" s="16"/>
       <c r="B35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
@@ -6134,26 +6138,26 @@
       <c r="G36" s="15"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="14">
         <v>9</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="14">
         <v>9</v>
       </c>
-      <c r="E37" s="13">
-        <v>10</v>
-      </c>
-      <c r="F37" s="13">
+      <c r="E37" s="14">
         <v>9</v>
       </c>
-      <c r="G37" s="13">
-        <v>37</v>
+      <c r="F37" s="14">
+        <v>9</v>
+      </c>
+      <c r="G37" s="14">
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6168,60 +6172,60 @@
       <c r="G38" s="15"/>
     </row>
     <row r="39" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="13">
-        <v>10</v>
-      </c>
-      <c r="D39" s="13">
+      <c r="C39" s="14">
         <v>9</v>
       </c>
-      <c r="E39" s="13">
-        <v>10</v>
-      </c>
-      <c r="F39" s="13">
+      <c r="D39" s="14">
         <v>9</v>
       </c>
-      <c r="G39" s="13">
-        <v>38</v>
+      <c r="E39" s="14">
+        <v>9</v>
+      </c>
+      <c r="F39" s="14">
+        <v>9</v>
+      </c>
+      <c r="G39" s="14">
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
+      <c r="A40" s="16"/>
       <c r="B40" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
+      <c r="A41" s="16"/>
       <c r="B41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
+      <c r="A42" s="16"/>
       <c r="B42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
@@ -6235,60 +6239,60 @@
       <c r="G43" s="15"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="14">
         <v>8</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="14">
         <v>8</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="14">
         <v>8</v>
       </c>
-      <c r="F44" s="13">
-        <v>9</v>
-      </c>
-      <c r="G44" s="13">
-        <v>33</v>
+      <c r="F44" s="14">
+        <v>8</v>
+      </c>
+      <c r="G44" s="14">
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
+      <c r="A45" s="16"/>
       <c r="B45" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
+      <c r="A46" s="16"/>
       <c r="B46" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
+      <c r="A47" s="16"/>
       <c r="B47" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
@@ -6302,60 +6306,60 @@
       <c r="G48" s="15"/>
     </row>
     <row r="49" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="14">
         <v>9</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D49" s="14">
         <v>9</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E49" s="14">
         <v>8</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F49" s="14">
         <v>9</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G49" s="14">
         <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
+      <c r="A50" s="16"/>
       <c r="B50" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
     </row>
     <row r="51" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
+      <c r="A51" s="16"/>
       <c r="B51" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
     </row>
     <row r="52" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
+      <c r="A52" s="16"/>
       <c r="B52" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
     </row>
     <row r="53" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
@@ -6369,70 +6373,70 @@
       <c r="G53" s="15"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="4">
-        <v>178</v>
-      </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="5"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="17">
+        <v>172</v>
+      </c>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="18"/>
     </row>
     <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="7"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="20"/>
     </row>
     <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="18"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="6"/>
     </row>
     <row r="58" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="19" t="s">
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F58" s="20"/>
-      <c r="G58" s="21"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="23"/>
-      <c r="C59" s="19" t="s">
+      <c r="B59" s="11"/>
+      <c r="C59" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="13" t="s">
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="24"/>
-      <c r="B60" s="25"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="13"/>
       <c r="C60" s="1" t="s">
         <v>35</v>
       </c>
@@ -6448,49 +6452,49 @@
       <c r="G60" s="15"/>
     </row>
     <row r="61" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="13">
+      <c r="C61" s="14">
         <v>8</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D61" s="14">
         <v>8</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E61" s="14">
         <v>8</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F61" s="14">
         <v>8</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G61" s="14">
         <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
+      <c r="A62" s="16"/>
       <c r="B62" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
     </row>
     <row r="63" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
+      <c r="A63" s="16"/>
       <c r="B63" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
     </row>
     <row r="64" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
@@ -6504,25 +6508,25 @@
       <c r="G64" s="15"/>
     </row>
     <row r="65" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="13">
+      <c r="C65" s="14">
         <v>8</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D65" s="14">
         <v>8</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E65" s="14">
         <v>9</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F65" s="14">
         <v>8</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G65" s="14">
         <v>33</v>
       </c>
     </row>
@@ -6538,60 +6542,60 @@
       <c r="G66" s="15"/>
     </row>
     <row r="67" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="13">
+      <c r="C67" s="14">
         <v>9</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D67" s="14">
         <v>9</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E67" s="14">
         <v>8</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F67" s="14">
         <v>8</v>
       </c>
-      <c r="G67" s="13">
+      <c r="G67" s="14">
         <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
+      <c r="A68" s="16"/>
       <c r="B68" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
     </row>
     <row r="69" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
+      <c r="A69" s="16"/>
       <c r="B69" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
     </row>
     <row r="70" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="14"/>
+      <c r="A70" s="16"/>
       <c r="B70" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
     </row>
     <row r="71" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
@@ -6605,60 +6609,60 @@
       <c r="G71" s="15"/>
     </row>
     <row r="72" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="13" t="s">
+      <c r="A72" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C72" s="13">
+      <c r="C72" s="14">
         <v>8</v>
       </c>
-      <c r="D72" s="13">
+      <c r="D72" s="14">
         <v>8</v>
       </c>
-      <c r="E72" s="13">
+      <c r="E72" s="14">
         <v>9</v>
       </c>
-      <c r="F72" s="13">
+      <c r="F72" s="14">
         <v>8</v>
       </c>
-      <c r="G72" s="13">
+      <c r="G72" s="14">
         <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
+      <c r="A73" s="16"/>
       <c r="B73" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
     </row>
     <row r="74" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
+      <c r="A74" s="16"/>
       <c r="B74" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
     </row>
     <row r="75" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
+      <c r="A75" s="16"/>
       <c r="B75" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
     </row>
     <row r="76" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="15"/>
@@ -6672,60 +6676,60 @@
       <c r="G76" s="15"/>
     </row>
     <row r="77" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C77" s="13">
+      <c r="C77" s="14">
         <v>10</v>
       </c>
-      <c r="D77" s="13">
+      <c r="D77" s="14">
         <v>7</v>
       </c>
-      <c r="E77" s="13">
+      <c r="E77" s="14">
         <v>9</v>
       </c>
-      <c r="F77" s="13">
+      <c r="F77" s="14">
         <v>8</v>
       </c>
-      <c r="G77" s="13">
+      <c r="G77" s="14">
         <v>34</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
+      <c r="A78" s="16"/>
       <c r="B78" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
     </row>
     <row r="79" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
+      <c r="A79" s="16"/>
       <c r="B79" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
     </row>
     <row r="80" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
+      <c r="A80" s="16"/>
       <c r="B80" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
     </row>
     <row r="81" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="15"/>
@@ -6739,70 +6743,70 @@
       <c r="G81" s="15"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="5"/>
-      <c r="C82" s="4">
+      <c r="B82" s="18"/>
+      <c r="C82" s="17">
         <v>166</v>
       </c>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="5"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="18"/>
     </row>
     <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="6"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="7"/>
+      <c r="A83" s="19"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="20"/>
     </row>
     <row r="84" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="85" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="16" t="s">
+      <c r="A85" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="18"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="6"/>
     </row>
     <row r="86" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="19" t="s">
+      <c r="A86" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B86" s="20"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="19" t="s">
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F86" s="20"/>
-      <c r="G86" s="21"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="9"/>
     </row>
     <row r="87" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="22" t="s">
+      <c r="A87" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B87" s="23"/>
-      <c r="C87" s="19" t="s">
+      <c r="B87" s="11"/>
+      <c r="C87" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D87" s="20"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="13" t="s">
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="24"/>
-      <c r="B88" s="25"/>
+      <c r="A88" s="12"/>
+      <c r="B88" s="13"/>
       <c r="C88" s="1" t="s">
         <v>35</v>
       </c>
@@ -6818,49 +6822,49 @@
       <c r="G88" s="15"/>
     </row>
     <row r="89" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="13" t="s">
+      <c r="A89" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C89" s="13">
+      <c r="C89" s="14">
         <v>9</v>
       </c>
-      <c r="D89" s="13">
+      <c r="D89" s="14">
         <v>9</v>
       </c>
-      <c r="E89" s="13">
+      <c r="E89" s="14">
         <v>8</v>
       </c>
-      <c r="F89" s="13">
+      <c r="F89" s="14">
         <v>8</v>
       </c>
-      <c r="G89" s="13">
+      <c r="G89" s="14">
         <v>34</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="14"/>
+      <c r="A90" s="16"/>
       <c r="B90" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
     </row>
     <row r="91" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="14"/>
+      <c r="A91" s="16"/>
       <c r="B91" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
     </row>
     <row r="92" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="15"/>
@@ -6874,26 +6878,26 @@
       <c r="G92" s="15"/>
     </row>
     <row r="93" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="13" t="s">
+      <c r="A93" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C93" s="13">
-        <v>7</v>
-      </c>
-      <c r="D93" s="13">
+      <c r="C93" s="14">
         <v>8</v>
       </c>
-      <c r="E93" s="13">
+      <c r="D93" s="14">
         <v>8</v>
       </c>
-      <c r="F93" s="13">
+      <c r="E93" s="14">
         <v>8</v>
       </c>
-      <c r="G93" s="13">
-        <v>31</v>
+      <c r="F93" s="14">
+        <v>9</v>
+      </c>
+      <c r="G93" s="14">
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6908,60 +6912,60 @@
       <c r="G94" s="15"/>
     </row>
     <row r="95" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="13" t="s">
+      <c r="A95" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C95" s="13">
+      <c r="C95" s="14">
         <v>8</v>
       </c>
-      <c r="D95" s="13">
+      <c r="D95" s="14">
         <v>9</v>
       </c>
-      <c r="E95" s="13">
+      <c r="E95" s="14">
         <v>8</v>
       </c>
-      <c r="F95" s="13">
+      <c r="F95" s="14">
         <v>8</v>
       </c>
-      <c r="G95" s="13">
+      <c r="G95" s="14">
         <v>33</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="14"/>
+      <c r="A96" s="16"/>
       <c r="B96" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
     </row>
     <row r="97" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="14"/>
+      <c r="A97" s="16"/>
       <c r="B97" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
     </row>
     <row r="98" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="14"/>
+      <c r="A98" s="16"/>
       <c r="B98" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="14"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
     </row>
     <row r="99" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="15"/>
@@ -6975,60 +6979,60 @@
       <c r="G99" s="15"/>
     </row>
     <row r="100" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="13" t="s">
+      <c r="A100" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C100" s="13">
+      <c r="C100" s="14">
         <v>8</v>
       </c>
-      <c r="D100" s="13">
+      <c r="D100" s="14">
         <v>8</v>
       </c>
-      <c r="E100" s="13">
+      <c r="E100" s="14">
         <v>8</v>
       </c>
-      <c r="F100" s="13">
+      <c r="F100" s="14">
         <v>8</v>
       </c>
-      <c r="G100" s="13">
+      <c r="G100" s="14">
         <v>32</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="14"/>
+      <c r="A101" s="16"/>
       <c r="B101" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
     </row>
     <row r="102" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="14"/>
+      <c r="A102" s="16"/>
       <c r="B102" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c r="G102" s="14"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
     </row>
     <row r="103" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="14"/>
+      <c r="A103" s="16"/>
       <c r="B103" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
     </row>
     <row r="104" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="15"/>
@@ -7042,60 +7046,60 @@
       <c r="G104" s="15"/>
     </row>
     <row r="105" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="13" t="s">
+      <c r="A105" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C105" s="13">
+      <c r="C105" s="14">
         <v>8</v>
       </c>
-      <c r="D105" s="13">
+      <c r="D105" s="14">
         <v>8</v>
       </c>
-      <c r="E105" s="13">
+      <c r="E105" s="14">
         <v>8</v>
       </c>
-      <c r="F105" s="13">
+      <c r="F105" s="14">
         <v>8</v>
       </c>
-      <c r="G105" s="13">
+      <c r="G105" s="14">
         <v>32</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="14"/>
+      <c r="A106" s="16"/>
       <c r="B106" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c r="G106" s="14"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="16"/>
     </row>
     <row r="107" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="14"/>
+      <c r="A107" s="16"/>
       <c r="B107" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c r="G107" s="14"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
     </row>
     <row r="108" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="14"/>
+      <c r="A108" s="16"/>
       <c r="B108" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c r="G108" s="14"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="16"/>
     </row>
     <row r="109" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="15"/>
@@ -7109,26 +7113,26 @@
       <c r="G109" s="15"/>
     </row>
     <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
+      <c r="A110" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B110" s="5"/>
-      <c r="C110" s="4">
+      <c r="B110" s="18"/>
+      <c r="C110" s="17">
         <v>165</v>
       </c>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="5"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="18"/>
     </row>
     <row r="111" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="6"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="7"/>
+      <c r="A111" s="19"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="22"/>
+      <c r="F111" s="22"/>
+      <c r="G111" s="20"/>
     </row>
     <row r="112" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
@@ -7159,47 +7163,47 @@
     </row>
     <row r="115" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="116" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="16" t="s">
+      <c r="A116" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B116" s="17"/>
-      <c r="C116" s="17"/>
-      <c r="D116" s="17"/>
-      <c r="E116" s="17"/>
-      <c r="F116" s="17"/>
-      <c r="G116" s="18"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="6"/>
     </row>
     <row r="117" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="19" t="s">
+      <c r="A117" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B117" s="20"/>
-      <c r="C117" s="20"/>
-      <c r="D117" s="21"/>
-      <c r="E117" s="19" t="s">
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F117" s="20"/>
-      <c r="G117" s="21"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="9"/>
     </row>
     <row r="118" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="22" t="s">
+      <c r="A118" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B118" s="23"/>
-      <c r="C118" s="19" t="s">
+      <c r="B118" s="11"/>
+      <c r="C118" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D118" s="20"/>
-      <c r="E118" s="20"/>
-      <c r="F118" s="21"/>
-      <c r="G118" s="13" t="s">
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="24"/>
-      <c r="B119" s="25"/>
+      <c r="A119" s="12"/>
+      <c r="B119" s="13"/>
       <c r="C119" s="1" t="s">
         <v>35</v>
       </c>
@@ -7215,49 +7219,49 @@
       <c r="G119" s="15"/>
     </row>
     <row r="120" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="13" t="s">
+      <c r="A120" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C120" s="13">
-        <v>7</v>
-      </c>
-      <c r="D120" s="13">
-        <v>7</v>
-      </c>
-      <c r="E120" s="13">
-        <v>7</v>
-      </c>
-      <c r="F120" s="13">
+      <c r="C120" s="14">
         <v>8</v>
       </c>
-      <c r="G120" s="13">
-        <v>29</v>
+      <c r="D120" s="14">
+        <v>8</v>
+      </c>
+      <c r="E120" s="14">
+        <v>8</v>
+      </c>
+      <c r="F120" s="14">
+        <v>8</v>
+      </c>
+      <c r="G120" s="14">
+        <v>32</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="14"/>
+      <c r="A121" s="16"/>
       <c r="B121" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c r="G121" s="14"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="16"/>
+      <c r="F121" s="16"/>
+      <c r="G121" s="16"/>
     </row>
     <row r="122" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="14"/>
+      <c r="A122" s="16"/>
       <c r="B122" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c r="G122" s="14"/>
+      <c r="C122" s="16"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="16"/>
     </row>
     <row r="123" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="15"/>
@@ -7271,25 +7275,25 @@
       <c r="G123" s="15"/>
     </row>
     <row r="124" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="13" t="s">
+      <c r="A124" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C124" s="13">
+      <c r="C124" s="14">
         <v>9</v>
       </c>
-      <c r="D124" s="13">
+      <c r="D124" s="14">
         <v>8</v>
       </c>
-      <c r="E124" s="13">
+      <c r="E124" s="14">
         <v>8</v>
       </c>
-      <c r="F124" s="13">
+      <c r="F124" s="14">
         <v>8</v>
       </c>
-      <c r="G124" s="13">
+      <c r="G124" s="14">
         <v>33</v>
       </c>
     </row>
@@ -7305,60 +7309,60 @@
       <c r="G125" s="15"/>
     </row>
     <row r="126" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="13" t="s">
+      <c r="A126" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C126" s="13">
+      <c r="C126" s="14">
         <v>8</v>
       </c>
-      <c r="D126" s="13">
+      <c r="D126" s="14">
         <v>7</v>
       </c>
-      <c r="E126" s="13">
+      <c r="E126" s="14">
         <v>8</v>
       </c>
-      <c r="F126" s="13">
-        <v>7</v>
-      </c>
-      <c r="G126" s="13">
-        <v>30</v>
+      <c r="F126" s="14">
+        <v>8</v>
+      </c>
+      <c r="G126" s="14">
+        <v>31</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="14"/>
+      <c r="A127" s="16"/>
       <c r="B127" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c r="G127" s="14"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="16"/>
+      <c r="F127" s="16"/>
+      <c r="G127" s="16"/>
     </row>
     <row r="128" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="14"/>
+      <c r="A128" s="16"/>
       <c r="B128" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c r="G128" s="14"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="16"/>
+      <c r="E128" s="16"/>
+      <c r="F128" s="16"/>
+      <c r="G128" s="16"/>
     </row>
     <row r="129" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="14"/>
+      <c r="A129" s="16"/>
       <c r="B129" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c r="G129" s="14"/>
+      <c r="C129" s="16"/>
+      <c r="D129" s="16"/>
+      <c r="E129" s="16"/>
+      <c r="F129" s="16"/>
+      <c r="G129" s="16"/>
     </row>
     <row r="130" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="15"/>
@@ -7372,60 +7376,60 @@
       <c r="G130" s="15"/>
     </row>
     <row r="131" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="13" t="s">
+      <c r="A131" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C131" s="13">
+      <c r="C131" s="14">
         <v>8</v>
       </c>
-      <c r="D131" s="13">
+      <c r="D131" s="14">
         <v>8</v>
       </c>
-      <c r="E131" s="13">
+      <c r="E131" s="14">
         <v>7</v>
       </c>
-      <c r="F131" s="13">
+      <c r="F131" s="14">
         <v>8</v>
       </c>
-      <c r="G131" s="13">
+      <c r="G131" s="14">
         <v>31</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="14"/>
+      <c r="A132" s="16"/>
       <c r="B132" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c r="G132" s="14"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="16"/>
+      <c r="E132" s="16"/>
+      <c r="F132" s="16"/>
+      <c r="G132" s="16"/>
     </row>
     <row r="133" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="14"/>
+      <c r="A133" s="16"/>
       <c r="B133" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c r="G133" s="14"/>
+      <c r="C133" s="16"/>
+      <c r="D133" s="16"/>
+      <c r="E133" s="16"/>
+      <c r="F133" s="16"/>
+      <c r="G133" s="16"/>
     </row>
     <row r="134" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="14"/>
+      <c r="A134" s="16"/>
       <c r="B134" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c r="G134" s="14"/>
+      <c r="C134" s="16"/>
+      <c r="D134" s="16"/>
+      <c r="E134" s="16"/>
+      <c r="F134" s="16"/>
+      <c r="G134" s="16"/>
     </row>
     <row r="135" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="15"/>
@@ -7439,60 +7443,60 @@
       <c r="G135" s="15"/>
     </row>
     <row r="136" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="13" t="s">
+      <c r="A136" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C136" s="13">
+      <c r="C136" s="14">
         <v>8</v>
       </c>
-      <c r="D136" s="13">
+      <c r="D136" s="14">
         <v>8</v>
       </c>
-      <c r="E136" s="13">
+      <c r="E136" s="14">
         <v>10</v>
       </c>
-      <c r="F136" s="13">
-        <v>8</v>
-      </c>
-      <c r="G136" s="13">
-        <v>34</v>
+      <c r="F136" s="14">
+        <v>9</v>
+      </c>
+      <c r="G136" s="14">
+        <v>35</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="14"/>
+      <c r="A137" s="16"/>
       <c r="B137" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c r="G137" s="14"/>
+      <c r="C137" s="16"/>
+      <c r="D137" s="16"/>
+      <c r="E137" s="16"/>
+      <c r="F137" s="16"/>
+      <c r="G137" s="16"/>
     </row>
     <row r="138" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="14"/>
+      <c r="A138" s="16"/>
       <c r="B138" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
-      <c r="G138" s="14"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="16"/>
+      <c r="E138" s="16"/>
+      <c r="F138" s="16"/>
+      <c r="G138" s="16"/>
     </row>
     <row r="139" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="14"/>
+      <c r="A139" s="16"/>
       <c r="B139" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c r="G139" s="14"/>
+      <c r="C139" s="16"/>
+      <c r="D139" s="16"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="16"/>
+      <c r="G139" s="16"/>
     </row>
     <row r="140" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="15"/>
@@ -7506,195 +7510,29 @@
       <c r="G140" s="15"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" s="4" t="s">
+      <c r="A141" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B141" s="5"/>
-      <c r="C141" s="4">
-        <v>157</v>
-      </c>
-      <c r="D141" s="8"/>
-      <c r="E141" s="8"/>
-      <c r="F141" s="8"/>
-      <c r="G141" s="5"/>
+      <c r="B141" s="18"/>
+      <c r="C141" s="17">
+        <v>162</v>
+      </c>
+      <c r="D141" s="21"/>
+      <c r="E141" s="21"/>
+      <c r="F141" s="21"/>
+      <c r="G141" s="18"/>
     </row>
     <row r="142" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="6"/>
-      <c r="B142" s="7"/>
-      <c r="C142" s="6"/>
-      <c r="D142" s="9"/>
-      <c r="E142" s="9"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="7"/>
+      <c r="A142" s="19"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="19"/>
+      <c r="D142" s="22"/>
+      <c r="E142" s="22"/>
+      <c r="F142" s="22"/>
+      <c r="G142" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="190">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="G5:G8"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="E16:E20"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="G16:G20"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="G11:G15"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="E44:E48"/>
-    <mergeCell ref="F44:F48"/>
-    <mergeCell ref="G44:G48"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="A59:B60"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="D49:D53"/>
-    <mergeCell ref="E49:E53"/>
-    <mergeCell ref="F49:F53"/>
-    <mergeCell ref="G49:G53"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="D61:D64"/>
-    <mergeCell ref="E61:E64"/>
-    <mergeCell ref="F61:F64"/>
-    <mergeCell ref="G61:G64"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="C72:C76"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="E72:E76"/>
-    <mergeCell ref="F72:F76"/>
-    <mergeCell ref="G72:G76"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="C67:C71"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="E67:E71"/>
-    <mergeCell ref="F67:F71"/>
-    <mergeCell ref="G67:G71"/>
-    <mergeCell ref="A85:G85"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="A87:B88"/>
-    <mergeCell ref="C87:F87"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="C77:C81"/>
-    <mergeCell ref="D77:D81"/>
-    <mergeCell ref="E77:E81"/>
-    <mergeCell ref="F77:F81"/>
-    <mergeCell ref="G77:G81"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="D89:D92"/>
-    <mergeCell ref="E89:E92"/>
-    <mergeCell ref="F89:F92"/>
-    <mergeCell ref="G89:G92"/>
-    <mergeCell ref="A100:A104"/>
-    <mergeCell ref="C100:C104"/>
-    <mergeCell ref="D100:D104"/>
-    <mergeCell ref="E100:E104"/>
-    <mergeCell ref="F100:F104"/>
-    <mergeCell ref="G100:G104"/>
-    <mergeCell ref="A110:B111"/>
-    <mergeCell ref="C110:G111"/>
-    <mergeCell ref="A95:A99"/>
-    <mergeCell ref="C95:C99"/>
-    <mergeCell ref="D95:D99"/>
-    <mergeCell ref="E95:E99"/>
-    <mergeCell ref="F95:F99"/>
-    <mergeCell ref="G95:G99"/>
-    <mergeCell ref="A120:A123"/>
-    <mergeCell ref="C120:C123"/>
-    <mergeCell ref="D120:D123"/>
-    <mergeCell ref="E120:E123"/>
-    <mergeCell ref="F120:F123"/>
-    <mergeCell ref="G120:G123"/>
-    <mergeCell ref="A116:G116"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="E117:G117"/>
-    <mergeCell ref="A118:B119"/>
-    <mergeCell ref="C118:F118"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="F131:F135"/>
-    <mergeCell ref="G131:G135"/>
-    <mergeCell ref="A126:A130"/>
-    <mergeCell ref="C126:C130"/>
-    <mergeCell ref="D126:D130"/>
-    <mergeCell ref="E126:E130"/>
-    <mergeCell ref="F126:F130"/>
-    <mergeCell ref="G126:G130"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="G124:G125"/>
     <mergeCell ref="A141:B142"/>
     <mergeCell ref="C141:G142"/>
     <mergeCell ref="A26:B27"/>
@@ -7719,6 +7557,172 @@
     <mergeCell ref="C131:C135"/>
     <mergeCell ref="D131:D135"/>
     <mergeCell ref="E131:E135"/>
+    <mergeCell ref="F131:F135"/>
+    <mergeCell ref="G131:G135"/>
+    <mergeCell ref="A126:A130"/>
+    <mergeCell ref="C126:C130"/>
+    <mergeCell ref="D126:D130"/>
+    <mergeCell ref="E126:E130"/>
+    <mergeCell ref="F126:F130"/>
+    <mergeCell ref="G126:G130"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="G124:G125"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="C120:C123"/>
+    <mergeCell ref="D120:D123"/>
+    <mergeCell ref="E120:E123"/>
+    <mergeCell ref="F120:F123"/>
+    <mergeCell ref="G120:G123"/>
+    <mergeCell ref="A116:G116"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="E117:G117"/>
+    <mergeCell ref="A118:B119"/>
+    <mergeCell ref="C118:F118"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="A100:A104"/>
+    <mergeCell ref="C100:C104"/>
+    <mergeCell ref="D100:D104"/>
+    <mergeCell ref="E100:E104"/>
+    <mergeCell ref="F100:F104"/>
+    <mergeCell ref="G100:G104"/>
+    <mergeCell ref="A110:B111"/>
+    <mergeCell ref="C110:G111"/>
+    <mergeCell ref="A95:A99"/>
+    <mergeCell ref="C95:C99"/>
+    <mergeCell ref="D95:D99"/>
+    <mergeCell ref="E95:E99"/>
+    <mergeCell ref="F95:F99"/>
+    <mergeCell ref="G95:G99"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="D89:D92"/>
+    <mergeCell ref="E89:E92"/>
+    <mergeCell ref="F89:F92"/>
+    <mergeCell ref="G89:G92"/>
+    <mergeCell ref="A85:G85"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="A87:B88"/>
+    <mergeCell ref="C87:F87"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="C77:C81"/>
+    <mergeCell ref="D77:D81"/>
+    <mergeCell ref="E77:E81"/>
+    <mergeCell ref="F77:F81"/>
+    <mergeCell ref="G77:G81"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="C72:C76"/>
+    <mergeCell ref="D72:D76"/>
+    <mergeCell ref="E72:E76"/>
+    <mergeCell ref="F72:F76"/>
+    <mergeCell ref="G72:G76"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="C67:C71"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="E67:E71"/>
+    <mergeCell ref="F67:F71"/>
+    <mergeCell ref="G67:G71"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="E61:E64"/>
+    <mergeCell ref="F61:F64"/>
+    <mergeCell ref="G61:G64"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="A59:B60"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="E49:E53"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="G49:G53"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="E44:E48"/>
+    <mergeCell ref="F44:F48"/>
+    <mergeCell ref="G44:G48"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="E16:E20"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="G16:G20"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="G11:G15"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="G5:G8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
